--- a/data/DASHBOARD input_Tawila_latest.xlsx
+++ b/data/DASHBOARD input_Tawila_latest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="67">
   <si>
     <t xml:space="preserve">Header</t>
   </si>
@@ -425,7 +425,7 @@
   For the DSWG and the UN Peacebuilding Fund in Sudan</t>
   </si>
   <si>
-    <t xml:space="preserve">Literacy among person 15 years and above</t>
+    <t xml:space="preserve">Literacy among person 15 years and above Linked to SDG 4.6.1</t>
   </si>
   <si>
     <t xml:space="preserve">Men</t>
@@ -435,6 +435,9 @@
   </si>
   <si>
     <t xml:space="preserve">Main activity of working age persons (15-64 years)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education: Primary school attendance (6-13 years) </t>
   </si>
   <si>
     <r>
@@ -442,10 +445,10 @@
         <b val="true"/>
         <sz val="8"/>
         <color rgb="FF3B3838"/>
-        <rFont val="Calibri (Body)"/>
-        <family val="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Education: Primary school</t>
+      <t xml:space="preserve">B</t>
     </r>
     <r>
       <rPr>
@@ -454,8 +457,9 @@
         <color rgb="FF3B3838"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> attendance (6-13 years)  - boys</t>
+      <t xml:space="preserve">oys</t>
     </r>
   </si>
   <si>
@@ -464,10 +468,10 @@
         <b val="true"/>
         <sz val="8"/>
         <color rgb="FF3B3838"/>
-        <rFont val="Calibri (Body)"/>
-        <family val="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Education: Primary school</t>
+      <t xml:space="preserve">G</t>
     </r>
     <r>
       <rPr>
@@ -476,8 +480,9 @@
         <color rgb="FF3B3838"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> attendance (6-13 years)  - girls</t>
+      <t xml:space="preserve">irls</t>
     </r>
   </si>
 </sst>
@@ -631,8 +636,8 @@
       <b val="true"/>
       <sz val="8"/>
       <color rgb="FF3B3838"/>
-      <name val="Calibri (Body)"/>
-      <family val="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -640,6 +645,7 @@
       <color rgb="FF3B3838"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1089,7 +1095,7 @@
       <selection pane="bottomRight" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.04"/>
@@ -2789,13 +2795,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44"/>
@@ -2925,7 +2931,9 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9"/>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -2933,632 +2941,620 @@
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9"/>
       <c r="B11" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+        <v>61</v>
+      </c>
+      <c r="C11" s="14" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D11" s="14" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E11" s="14" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9"/>
       <c r="B12" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" s="14" t="n">
-        <v>0.87</v>
+        <v>0.59</v>
       </c>
       <c r="D12" s="14" t="n">
-        <v>0.92</v>
+        <v>0.74</v>
       </c>
       <c r="E12" s="14" t="n">
-        <v>0.83</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="B13" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="14" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="D13" s="14" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="E13" s="14" t="n">
-        <v>0.54</v>
-      </c>
+      <c r="A13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="16"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18"/>
-      <c r="B15" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="20" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="D15" s="20" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E15" s="21" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9"/>
-      <c r="B16" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="20" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="D16" s="20" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E16" s="21" t="n">
-        <v>0.7</v>
+      <c r="B16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="17" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E16" s="23" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9"/>
       <c r="B17" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C17" s="17" t="n">
+        <v>0.84</v>
       </c>
       <c r="D17" s="17" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="E17" s="23" t="n">
-        <v>0.06</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9"/>
       <c r="B18" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="17" t="n">
-        <v>0.84</v>
+        <v>0.23</v>
       </c>
       <c r="D18" s="17" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="E18" s="23" t="n">
-        <v>0.28</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9"/>
-      <c r="B19" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="17" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="D19" s="17" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="E19" s="23" t="n">
-        <v>0.13</v>
+      <c r="B19" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="25" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D19" s="25" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9"/>
-      <c r="B20" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="25" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="D20" s="25" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>20</v>
-      </c>
+      <c r="A20" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="23"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="16"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="23"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="27"/>
-      <c r="B22" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="23"/>
+      <c r="B22" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="20" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="D22" s="20" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E22" s="21" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="27"/>
-      <c r="B23" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="20" t="n">
-        <v>0.69</v>
-      </c>
-      <c r="D23" s="20" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="E23" s="21" t="n">
-        <v>0.73</v>
+      <c r="B23" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="17" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D23" s="17" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E23" s="23" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="27"/>
-      <c r="B24" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="17" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="D24" s="17" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="E24" s="23" t="n">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="B25" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="29"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="27"/>
-      <c r="B26" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="B26" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="31" t="n">
+        <v>0.324237560192616</v>
+      </c>
+      <c r="D26" s="31" t="n">
+        <v>0.29618320610687</v>
+      </c>
+      <c r="E26" s="31" t="n">
+        <v>0.318181818181818</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="27"/>
       <c r="B27" s="30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="31" t="n">
-        <v>0.324237560192616</v>
+        <v>0.308186195826645</v>
       </c>
       <c r="D27" s="31" t="n">
-        <v>0.29618320610687</v>
+        <v>0.322137404580153</v>
       </c>
       <c r="E27" s="31" t="n">
-        <v>0.318181818181818</v>
+        <v>0.409090909090909</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="27"/>
       <c r="B28" s="30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" s="31" t="n">
-        <v>0.308186195826645</v>
+        <v>0.367576243980738</v>
       </c>
       <c r="D28" s="31" t="n">
-        <v>0.322137404580153</v>
+        <v>0.381679389312977</v>
       </c>
       <c r="E28" s="31" t="n">
-        <v>0.409090909090909</v>
+        <v>0.272727272727273</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="27"/>
-      <c r="B29" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="31" t="n">
-        <v>0.367576243980738</v>
-      </c>
-      <c r="D29" s="31" t="n">
-        <v>0.381679389312977</v>
-      </c>
-      <c r="E29" s="31" t="n">
-        <v>0.272727272727273</v>
+      <c r="B29" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="33" t="n">
+        <v>0.176646706586826</v>
+      </c>
+      <c r="D29" s="33" t="n">
+        <v>0.187766714082504</v>
+      </c>
+      <c r="E29" s="33" t="n">
+        <v>0.249448123620309</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="27"/>
       <c r="B30" s="32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" s="33" t="n">
-        <v>0.176646706586826</v>
+        <v>0.440119760479042</v>
       </c>
       <c r="D30" s="33" t="n">
-        <v>0.187766714082504</v>
+        <v>0.330014224751067</v>
       </c>
       <c r="E30" s="33" t="n">
-        <v>0.249448123620309</v>
+        <v>0.498896247240618</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="27"/>
       <c r="B31" s="32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" s="33" t="n">
-        <v>0.440119760479042</v>
+        <v>0.383233532934132</v>
       </c>
       <c r="D31" s="33" t="n">
-        <v>0.330014224751067</v>
+        <v>0.48221906116643</v>
       </c>
       <c r="E31" s="33" t="n">
-        <v>0.498896247240618</v>
+        <v>0.251655629139073</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="27"/>
-      <c r="B32" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="33" t="n">
-        <v>0.383233532934132</v>
-      </c>
-      <c r="D32" s="33" t="n">
-        <v>0.48221906116643</v>
-      </c>
-      <c r="E32" s="33" t="n">
-        <v>0.251655629139073</v>
-      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="27"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="B33" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="27"/>
-      <c r="B34" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
+      <c r="B34" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="17" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="D34" s="17" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E34" s="23" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="27"/>
-      <c r="B35" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="17" t="n">
+      <c r="B35" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="25" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D35" s="25" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E35" s="37" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="36"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="37"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="17" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D37" s="17" t="n">
         <v>0.24</v>
       </c>
-      <c r="D35" s="17" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="E35" s="23" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="27"/>
-      <c r="B36" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="25" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="D36" s="25" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="E36" s="37" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="37"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="39" t="s">
-        <v>39</v>
+      <c r="E37" s="23" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="38"/>
+      <c r="B38" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="C38" s="17" t="n">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="D38" s="17" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E38" s="23" t="n">
         <v>0.24</v>
-      </c>
-      <c r="E38" s="23" t="n">
-        <v>0.05</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="38"/>
       <c r="B39" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" s="17" t="n">
-        <v>0.25</v>
+        <v>0.44</v>
       </c>
       <c r="D39" s="17" t="n">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="E39" s="23" t="n">
-        <v>0.24</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="38"/>
       <c r="B40" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" s="17" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="D40" s="17" t="n">
-        <v>0.11</v>
+        <v>0.35</v>
+      </c>
+      <c r="D40" s="40" t="n">
+        <v>0.64</v>
       </c>
       <c r="E40" s="23" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="38"/>
-      <c r="B41" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="17" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D41" s="40" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E41" s="23" t="n">
-        <v>0.47</v>
-      </c>
+      <c r="B41" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="23"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="38"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="23"/>
+      <c r="B42" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="17" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D42" s="17" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="E42" s="23" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="38"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="23"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="17" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D43" s="17" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E43" s="23" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="38"/>
-      <c r="B44" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="17" t="n">
+      <c r="A44" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="41"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="20" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D45" s="20" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E45" s="44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="43"/>
+      <c r="B46" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="37" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="46"/>
+      <c r="B48" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="48"/>
+      <c r="B49" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="22" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D49" s="22" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E49" s="22" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="22" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D50" s="22" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E50" s="22" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="49"/>
+      <c r="B51" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="22" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D51" s="22" t="n">
         <v>0.51</v>
       </c>
-      <c r="D44" s="17" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="E44" s="23" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="43"/>
-      <c r="B45" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="17" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="D45" s="17" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E45" s="23" t="n">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="41"/>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="20" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="D47" s="20" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="E47" s="44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="43"/>
-      <c r="B48" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="37" t="n">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="46"/>
-      <c r="B50" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="48"/>
-      <c r="B51" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="22" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D51" s="22" t="n">
-        <v>0.36</v>
-      </c>
       <c r="E51" s="22" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="22" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D52" s="22" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E52" s="22" t="n">
-        <v>0.27</v>
-      </c>
+      <c r="A52" s="49"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="49"/>
-      <c r="B53" s="13" t="s">
-        <v>52</v>
+      <c r="B53" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C53" s="22" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="D53" s="22" t="n">
-        <v>0.51</v>
+        <v>0.29</v>
       </c>
       <c r="E53" s="22" t="n">
-        <v>0.24</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="49"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
+      <c r="B54" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="22" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D54" s="22" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E54" s="22" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="49"/>
       <c r="B55" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C55" s="22" t="n">
-        <v>0.37</v>
+        <v>0.54</v>
       </c>
       <c r="D55" s="22" t="n">
-        <v>0.29</v>
+        <v>0.55</v>
       </c>
       <c r="E55" s="22" t="n">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="49"/>
-      <c r="B56" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="22" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D56" s="22" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E56" s="22" t="n">
-        <v>0.25</v>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="50" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="49"/>
-      <c r="B57" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="22" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="D57" s="22" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E57" s="22" t="n">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="51" t="s">
+      <c r="B57" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="52" t="n">
+      <c r="C57" s="52" t="n">
         <v>0.58</v>
       </c>
-      <c r="D59" s="52" t="n">
+      <c r="D57" s="52" t="n">
         <v>0.92</v>
       </c>
-      <c r="E59" s="52" t="n">
+      <c r="E57" s="52" t="n">
         <v>0.93</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="51" t="s">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="52" t="n">
+      <c r="C58" s="52" t="n">
         <v>0.36</v>
       </c>
-      <c r="D60" s="51" t="s">
+      <c r="D58" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="51" t="s">
+      <c r="E58" s="51" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="B1:E1"/>
@@ -3567,11 +3563,11 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A23:A36"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A22:A35"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B48:E48"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
